--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.7476</v>
+        <v>-11.7917</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.103999999999998</v>
+        <v>6.020000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.885699999999997</v>
+        <v>-6.798099999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.362000000000002</v>
+        <v>-7.279900000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5893</v>
+        <v>5.845800000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.587600000000002</v>
+        <v>9.680499999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.013800000000005</v>
+        <v>8.877100000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.3645</v>
+        <v>-7.376900000000004</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.210199999999998</v>
+        <v>5.008599999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.7234</v>
+        <v>-13.8659</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.219799999999999</v>
+        <v>-8.255000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.053800000000004</v>
+        <v>5.223300000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.4765</v>
+        <v>-13.25989999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.151200000000001</v>
+        <v>5.114400000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1388</v>
+        <v>-13.2712</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.66990000000001</v>
+        <v>-12.73690000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.68859999999999</v>
+        <v>-11.53799999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.232600000000001</v>
+        <v>-8.163600000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6182</v>
+        <v>-11.38139999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2661</v>
+        <v>-11.3687</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.3206</v>
+        <v>5.328600000000002</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.0569</v>
+        <v>-5.790300000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.72869999999999</v>
+        <v>-13.6892</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.73879999999999</v>
+        <v>-12.58929999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.922199999999998</v>
+        <v>5.118899999999997</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.7231</v>
+        <v>-13.67109999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.218699999999997</v>
+        <v>-8.142799999999996</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.808599999999996</v>
+        <v>4.990399999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.0344</v>
+        <v>-7.946599999999998</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.048600000000004</v>
+        <v>-7.978500000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.437899999999994</v>
+        <v>5.256399999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.645099999999997</v>
+        <v>-7.606999999999992</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.9937</v>
+        <v>-12.8973</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.607100000000001</v>
+        <v>9.151800000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.605199999999996</v>
+        <v>5.555299999999994</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.754999999999996</v>
+        <v>-7.4891</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.912</v>
+        <v>-10.5567</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.5667</v>
+        <v>-12.12</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.953099999999996</v>
+        <v>5.073299999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.6226</v>
+        <v>-11.5228</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.996499999999998</v>
+        <v>5.829099999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.648099999999999</v>
+        <v>-8.730199999999998</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.231100000000005</v>
+        <v>-8.328900000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.870799999999998</v>
+        <v>-7.831299999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
